--- a/config_12.08/banner_style_ui.xlsx
+++ b/config_12.08/banner_style_ui.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="192">
   <si>
     <t>id|行号，从1开始，连续就行</t>
   </si>
@@ -892,6 +892,10 @@
   </si>
   <si>
     <t>"sys_act_base","panel"</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1091,7 +1095,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1205,6 +1209,36 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1558,11 +1592,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N86"/>
+  <dimension ref="A1:N87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L75" sqref="L75"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1576,8 +1610,8 @@
     <col min="8" max="8" width="32.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.125" customWidth="1"/>
     <col min="10" max="10" width="25.25" customWidth="1"/>
-    <col min="11" max="11" width="24.75" customWidth="1"/>
-    <col min="12" max="12" width="18.625" customWidth="1"/>
+    <col min="11" max="11" width="24.75" style="39" customWidth="1"/>
+    <col min="12" max="12" width="18.625" style="39" customWidth="1"/>
     <col min="13" max="13" width="14.125" customWidth="1"/>
     <col min="14" max="14" width="19.25" customWidth="1"/>
   </cols>
@@ -1613,10 +1647,10 @@
       <c r="J1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="38" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="5" t="s">
@@ -1645,10 +1679,10 @@
       <c r="J2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K2">
-        <v>-1</v>
-      </c>
-      <c r="L2">
+      <c r="K2" s="39">
+        <v>-1</v>
+      </c>
+      <c r="L2" s="39">
         <v>-1</v>
       </c>
       <c r="M2" t="s">
@@ -1674,10 +1708,10 @@
       <c r="J3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K3">
-        <v>-1</v>
-      </c>
-      <c r="L3">
+      <c r="K3" s="39">
+        <v>-1</v>
+      </c>
+      <c r="L3" s="39">
         <v>-1</v>
       </c>
       <c r="M3" t="s">
@@ -1703,10 +1737,10 @@
       <c r="J4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K4">
-        <v>-1</v>
-      </c>
-      <c r="L4">
+      <c r="K4" s="39">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="39">
         <v>-1</v>
       </c>
       <c r="M4" t="s">
@@ -1732,10 +1766,10 @@
       <c r="J5" t="s">
         <v>22</v>
       </c>
-      <c r="K5">
-        <v>-1</v>
-      </c>
-      <c r="L5">
+      <c r="K5" s="39">
+        <v>-1</v>
+      </c>
+      <c r="L5" s="39">
         <v>-1</v>
       </c>
       <c r="M5" t="s">
@@ -1761,10 +1795,10 @@
       <c r="J6" t="s">
         <v>22</v>
       </c>
-      <c r="K6">
-        <v>-1</v>
-      </c>
-      <c r="L6">
+      <c r="K6" s="39">
+        <v>-1</v>
+      </c>
+      <c r="L6" s="39">
         <v>-1</v>
       </c>
       <c r="M6" t="s">
@@ -1787,10 +1821,10 @@
       <c r="J7" t="s">
         <v>22</v>
       </c>
-      <c r="K7">
-        <v>-1</v>
-      </c>
-      <c r="L7">
+      <c r="K7" s="39">
+        <v>-1</v>
+      </c>
+      <c r="L7" s="39">
         <v>-1</v>
       </c>
       <c r="M7" s="8" t="s">
@@ -1813,10 +1847,10 @@
       <c r="J8" t="s">
         <v>22</v>
       </c>
-      <c r="K8">
-        <v>-1</v>
-      </c>
-      <c r="L8">
+      <c r="K8" s="39">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="39">
         <v>-1</v>
       </c>
       <c r="N8">
@@ -1839,10 +1873,10 @@
       <c r="J9" t="s">
         <v>22</v>
       </c>
-      <c r="K9">
-        <v>-1</v>
-      </c>
-      <c r="L9">
+      <c r="K9" s="39">
+        <v>-1</v>
+      </c>
+      <c r="L9" s="39">
         <v>-1</v>
       </c>
     </row>
@@ -1865,10 +1899,10 @@
       <c r="J10" t="s">
         <v>22</v>
       </c>
-      <c r="K10">
-        <v>-1</v>
-      </c>
-      <c r="L10">
+      <c r="K10" s="39">
+        <v>-1</v>
+      </c>
+      <c r="L10" s="39">
         <v>-1</v>
       </c>
       <c r="M10" s="8"/>
@@ -1892,10 +1926,10 @@
       <c r="J11" t="s">
         <v>22</v>
       </c>
-      <c r="K11">
-        <v>-1</v>
-      </c>
-      <c r="L11">
+      <c r="K11" s="39">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="39">
         <v>-1</v>
       </c>
       <c r="M11" s="8"/>
@@ -1919,10 +1953,10 @@
       <c r="J12" t="s">
         <v>22</v>
       </c>
-      <c r="K12">
-        <v>-1</v>
-      </c>
-      <c r="L12">
+      <c r="K12" s="39">
+        <v>-1</v>
+      </c>
+      <c r="L12" s="39">
         <v>-1</v>
       </c>
       <c r="M12" s="8"/>
@@ -1952,10 +1986,10 @@
       <c r="J13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L13" s="1">
+      <c r="K13" s="40">
+        <v>-1</v>
+      </c>
+      <c r="L13" s="40">
         <v>-1</v>
       </c>
       <c r="M13" s="9"/>
@@ -1982,10 +2016,10 @@
       <c r="J14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L14">
+      <c r="K14" s="40">
+        <v>-1</v>
+      </c>
+      <c r="L14" s="39">
         <v>-1</v>
       </c>
     </row>
@@ -2011,10 +2045,10 @@
       <c r="J15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L15">
+      <c r="K15" s="40">
+        <v>-1</v>
+      </c>
+      <c r="L15" s="39">
         <v>-1</v>
       </c>
     </row>
@@ -2040,10 +2074,10 @@
       <c r="J16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L16">
+      <c r="K16" s="40">
+        <v>-1</v>
+      </c>
+      <c r="L16" s="39">
         <v>-1</v>
       </c>
     </row>
@@ -2069,10 +2103,10 @@
       <c r="J17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L17">
+      <c r="K17" s="40">
+        <v>-1</v>
+      </c>
+      <c r="L17" s="39">
         <v>-1</v>
       </c>
     </row>
@@ -2101,10 +2135,10 @@
       <c r="J18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="2">
-        <v>-1</v>
-      </c>
-      <c r="L18" s="2">
+      <c r="K18" s="41">
+        <v>-1</v>
+      </c>
+      <c r="L18" s="41">
         <v>-1</v>
       </c>
     </row>
@@ -2127,10 +2161,10 @@
       <c r="J19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L19">
+      <c r="K19" s="40">
+        <v>-1</v>
+      </c>
+      <c r="L19" s="39">
         <v>-1</v>
       </c>
     </row>
@@ -2156,10 +2190,10 @@
       <c r="J20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L20">
+      <c r="K20" s="40">
+        <v>-1</v>
+      </c>
+      <c r="L20" s="39">
         <v>-1</v>
       </c>
     </row>
@@ -2183,10 +2217,10 @@
       <c r="J21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K21" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L21" s="1">
+      <c r="K21" s="40">
+        <v>-1</v>
+      </c>
+      <c r="L21" s="40">
         <v>-1</v>
       </c>
     </row>
@@ -2210,10 +2244,10 @@
       <c r="J22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L22">
+      <c r="K22" s="40">
+        <v>-1</v>
+      </c>
+      <c r="L22" s="39">
         <v>-1</v>
       </c>
     </row>
@@ -2240,10 +2274,10 @@
       <c r="J23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L23">
+      <c r="K23" s="40">
+        <v>-1</v>
+      </c>
+      <c r="L23" s="39">
         <v>-1</v>
       </c>
     </row>
@@ -2270,10 +2304,10 @@
       <c r="J24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="39">
         <v>1572305400</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="42">
         <v>1573487999</v>
       </c>
     </row>
@@ -2301,10 +2335,10 @@
       <c r="J25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L25">
+      <c r="K25" s="40">
+        <v>-1</v>
+      </c>
+      <c r="L25" s="39">
         <v>-1</v>
       </c>
     </row>
@@ -2332,10 +2366,10 @@
       <c r="J26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L26">
+      <c r="K26" s="40">
+        <v>-1</v>
+      </c>
+      <c r="L26" s="39">
         <v>-1</v>
       </c>
     </row>
@@ -2364,10 +2398,10 @@
       <c r="J27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="2">
-        <v>-1</v>
-      </c>
-      <c r="L27" s="2">
+      <c r="K27" s="41">
+        <v>-1</v>
+      </c>
+      <c r="L27" s="41">
         <v>-1</v>
       </c>
     </row>
@@ -2393,10 +2427,10 @@
       <c r="J28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="39">
         <v>1571095800</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="39">
         <v>1571673599</v>
       </c>
     </row>
@@ -2424,10 +2458,10 @@
       <c r="J29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L29">
+      <c r="K29" s="40">
+        <v>-1</v>
+      </c>
+      <c r="L29" s="39">
         <v>-1</v>
       </c>
     </row>
@@ -2451,10 +2485,10 @@
       <c r="J30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="40">
         <v>1571700600</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="40">
         <v>1572278399</v>
       </c>
     </row>
@@ -2481,10 +2515,10 @@
       <c r="J31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K31" s="2">
-        <v>-1</v>
-      </c>
-      <c r="L31" s="2">
+      <c r="K31" s="41">
+        <v>-1</v>
+      </c>
+      <c r="L31" s="41">
         <v>-1</v>
       </c>
     </row>
@@ -2509,10 +2543,10 @@
       <c r="J32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K32" s="12">
+      <c r="K32" s="42">
         <v>1574119800</v>
       </c>
-      <c r="L32" s="12">
+      <c r="L32" s="42">
         <v>1574697599</v>
       </c>
     </row>
@@ -2540,10 +2574,10 @@
       <c r="J33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L33">
+      <c r="K33" s="40">
+        <v>-1</v>
+      </c>
+      <c r="L33" s="39">
         <v>-1</v>
       </c>
     </row>
@@ -2571,10 +2605,10 @@
       <c r="J34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="40">
         <v>1574724600</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="39">
         <v>1575302399</v>
       </c>
     </row>
@@ -2602,10 +2636,10 @@
       <c r="J35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35" s="40">
         <v>1575329400</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="39">
         <v>1575907199</v>
       </c>
     </row>
@@ -2633,10 +2667,10 @@
       <c r="J36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K36" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L36">
+      <c r="K36" s="40">
+        <v>-1</v>
+      </c>
+      <c r="L36" s="39">
         <v>-1</v>
       </c>
     </row>
@@ -2666,10 +2700,10 @@
       <c r="J37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K37" s="2">
-        <v>-1</v>
-      </c>
-      <c r="L37" s="2">
+      <c r="K37" s="41">
+        <v>-1</v>
+      </c>
+      <c r="L37" s="41">
         <v>-1</v>
       </c>
     </row>
@@ -2697,10 +2731,10 @@
       <c r="J38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" s="40">
         <v>1576539000</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="39">
         <v>1577289599</v>
       </c>
     </row>
@@ -2727,10 +2761,10 @@
       <c r="J39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K39" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L39">
+      <c r="K39" s="40">
+        <v>-1</v>
+      </c>
+      <c r="L39" s="39">
         <v>-1</v>
       </c>
     </row>
@@ -2758,10 +2792,10 @@
       <c r="J40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K40" s="1">
+      <c r="K40" s="40">
         <v>1577835000</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="39">
         <v>1578326399</v>
       </c>
     </row>
@@ -2789,10 +2823,10 @@
       <c r="J41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K41" s="40">
         <v>1578353400</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="39">
         <v>1578931199</v>
       </c>
     </row>
@@ -2820,10 +2854,10 @@
       <c r="J42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K42" s="40">
         <v>1578958200</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="39">
         <v>1581350399</v>
       </c>
     </row>
@@ -2883,10 +2917,10 @@
       <c r="J44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K44" s="2">
-        <v>-1</v>
-      </c>
-      <c r="L44" s="2">
+      <c r="K44" s="41">
+        <v>-1</v>
+      </c>
+      <c r="L44" s="41">
         <v>-1</v>
       </c>
     </row>
@@ -2914,10 +2948,10 @@
       <c r="J45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K45" s="1">
+      <c r="K45" s="40">
         <v>1581982200</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="39">
         <v>1582559999</v>
       </c>
     </row>
@@ -2945,10 +2979,10 @@
       <c r="J46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K46" s="40">
         <v>1582587000</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="39">
         <v>1583164799</v>
       </c>
     </row>
@@ -2976,10 +3010,10 @@
       <c r="J47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K47" s="1">
+      <c r="K47" s="40">
         <v>1583191800</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="39">
         <v>1583769599</v>
       </c>
     </row>
@@ -3007,10 +3041,10 @@
       <c r="J48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K48" s="1">
+      <c r="K48" s="40">
         <v>1583796600</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="39">
         <v>1584374399</v>
       </c>
     </row>
@@ -3038,10 +3072,10 @@
       <c r="J49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K49" s="40">
         <v>1583796600</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="39">
         <v>1584374399</v>
       </c>
     </row>
@@ -3071,10 +3105,10 @@
       <c r="J50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K50" s="1">
+      <c r="K50" s="40">
         <v>1584401400</v>
       </c>
-      <c r="L50" s="1">
+      <c r="L50" s="40">
         <v>1584979199</v>
       </c>
     </row>
@@ -3100,10 +3134,10 @@
       <c r="J51" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="39">
         <v>1587425400</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="39">
         <v>1588003199</v>
       </c>
     </row>
@@ -3161,7 +3195,7 @@
       <c r="K53" s="19">
         <v>1585006200</v>
       </c>
-      <c r="L53" s="4">
+      <c r="L53" s="47">
         <v>-1</v>
       </c>
     </row>
@@ -3313,10 +3347,10 @@
       <c r="J58" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="39">
         <v>1586820600</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="39">
         <v>1587398399</v>
       </c>
     </row>
@@ -3345,10 +3379,10 @@
       <c r="J59" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="39">
         <v>1589844600</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="39">
         <v>1590422399</v>
       </c>
     </row>
@@ -3377,10 +3411,10 @@
       <c r="J60" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="39">
         <v>1591054200</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="39">
         <v>1591631999</v>
       </c>
     </row>
@@ -3406,10 +3440,10 @@
       <c r="J61" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="K61" s="23">
-        <v>-1</v>
-      </c>
-      <c r="L61" s="23">
+      <c r="K61" s="43">
+        <v>-1</v>
+      </c>
+      <c r="L61" s="43">
         <v>-1</v>
       </c>
     </row>
@@ -3469,10 +3503,10 @@
       <c r="J63" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K63" s="1">
+      <c r="K63" s="40">
         <v>1588030200</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="39">
         <v>1588607999</v>
       </c>
     </row>
@@ -3501,10 +3535,10 @@
       <c r="J64" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K64" s="1">
+      <c r="K64" s="40">
         <v>1588608000</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="39">
         <v>1589212799</v>
       </c>
     </row>
@@ -3533,10 +3567,10 @@
       <c r="J65" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="39">
         <v>1589239800</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="39">
         <v>1589817599</v>
       </c>
     </row>
@@ -3565,10 +3599,10 @@
       <c r="J66" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="39">
         <v>1589844600</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="39">
         <v>1590422399</v>
       </c>
     </row>
@@ -3597,10 +3631,10 @@
       <c r="J67" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="39">
         <v>1590449400</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="39">
         <v>1591027199</v>
       </c>
     </row>
@@ -3629,10 +3663,10 @@
       <c r="J68" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="39">
         <v>1591054200</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="39">
         <v>1591631999</v>
       </c>
     </row>
@@ -3658,10 +3692,10 @@
       <c r="J69" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="K69">
-        <v>-1</v>
-      </c>
-      <c r="L69">
+      <c r="K69" s="39">
+        <v>-1</v>
+      </c>
+      <c r="L69" s="39">
         <v>-1</v>
       </c>
     </row>
@@ -3691,10 +3725,10 @@
       <c r="J70" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K70" s="1">
+      <c r="K70" s="40">
         <v>1597102200</v>
       </c>
-      <c r="L70">
+      <c r="L70" s="39">
         <v>1597679999</v>
       </c>
     </row>
@@ -3723,10 +3757,10 @@
       <c r="J71" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="K71">
-        <v>-1</v>
-      </c>
-      <c r="L71">
+      <c r="K71" s="39">
+        <v>-1</v>
+      </c>
+      <c r="L71" s="39">
         <v>-1</v>
       </c>
     </row>
@@ -3752,10 +3786,10 @@
       <c r="J72" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="K72">
-        <v>-1</v>
-      </c>
-      <c r="L72">
+      <c r="K72" s="39">
+        <v>-1</v>
+      </c>
+      <c r="L72" s="39">
         <v>-1</v>
       </c>
     </row>
@@ -3784,10 +3818,10 @@
       <c r="J73" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="39">
         <v>1597707000</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="39">
         <v>1598284799</v>
       </c>
     </row>
@@ -3816,10 +3850,10 @@
       <c r="J74" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="K74">
-        <v>-1</v>
-      </c>
-      <c r="L74">
+      <c r="K74" s="39">
+        <v>-1</v>
+      </c>
+      <c r="L74" s="39">
         <v>-1</v>
       </c>
     </row>
@@ -3845,10 +3879,10 @@
       <c r="J75" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="K75" s="23">
+      <c r="K75" s="43">
         <v>1606780800</v>
       </c>
-      <c r="L75" s="23">
+      <c r="L75" s="43">
         <v>1607356799</v>
       </c>
     </row>
@@ -3877,10 +3911,10 @@
       <c r="J76" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="39">
         <v>1602547200</v>
       </c>
-      <c r="L76">
+      <c r="L76" s="39">
         <v>1603123199</v>
       </c>
     </row>
@@ -3909,10 +3943,10 @@
       <c r="J77" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="39">
         <v>1599521400</v>
       </c>
-      <c r="L77">
+      <c r="L77" s="39">
         <v>1600099199</v>
       </c>
     </row>
@@ -3941,10 +3975,10 @@
       <c r="J78" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="39">
         <v>1599521400</v>
       </c>
-      <c r="L78">
+      <c r="L78" s="39">
         <v>1600099199</v>
       </c>
     </row>
@@ -3973,10 +4007,10 @@
       <c r="J79" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="K79" s="23">
+      <c r="K79" s="43">
         <v>1605571200</v>
       </c>
-      <c r="L79" s="23">
+      <c r="L79" s="43">
         <v>1606147199</v>
       </c>
     </row>
@@ -4005,10 +4039,10 @@
       <c r="J80" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="39">
         <v>1601337600</v>
       </c>
-      <c r="L80">
+      <c r="L80" s="39">
         <v>1601913599</v>
       </c>
     </row>
@@ -4037,10 +4071,10 @@
       <c r="J81" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="39">
         <v>1603152000</v>
       </c>
-      <c r="L81">
+      <c r="L81" s="39">
         <v>1603727999</v>
       </c>
     </row>
@@ -4069,10 +4103,10 @@
       <c r="J82" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="K82" s="32">
+      <c r="K82" s="44">
         <v>1603756800</v>
       </c>
-      <c r="L82" s="32">
+      <c r="L82" s="44">
         <v>1604332799</v>
       </c>
     </row>
@@ -4098,10 +4132,10 @@
       <c r="J83" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="45">
         <v>1604359800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="45">
         <v>1604937599</v>
       </c>
     </row>
@@ -4130,10 +4164,10 @@
       <c r="J84" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="K84" s="35">
+      <c r="K84" s="46">
         <v>1604966400</v>
       </c>
-      <c r="L84" s="35">
+      <c r="L84" s="46">
         <v>1605542399</v>
       </c>
     </row>
@@ -4162,10 +4196,10 @@
       <c r="J85" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="K85">
-        <v>-1</v>
-      </c>
-      <c r="L85">
+      <c r="K85" s="39">
+        <v>-1</v>
+      </c>
+      <c r="L85" s="39">
         <v>-1</v>
       </c>
     </row>
@@ -4191,11 +4225,40 @@
       <c r="J86" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="39">
         <v>1606176000</v>
       </c>
-      <c r="L86">
+      <c r="L86" s="39">
         <v>1606751999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+      <c r="C87" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>100</v>
+      </c>
+      <c r="H87" t="s">
+        <v>190</v>
+      </c>
+      <c r="J87" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="K87" s="44">
+        <v>1607385600</v>
+      </c>
+      <c r="L87" s="44">
+        <v>1607961599</v>
       </c>
     </row>
   </sheetData>
@@ -4206,17 +4269,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="7" master=""/>
-</allowEditUser>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4228,19 +4293,17 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="7" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4261,13 +4324,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -4279,13 +4342,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
